--- a/bases/UPDATE/SCN/PIB actividad economica.xlsx
+++ b/bases/UPDATE/SCN/PIB actividad economica.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcant\Dropbox (CIEP)\TemplateCIEP\basesCIEP\INEGI\SCN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcant\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="5168"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="5978"/>
   </bookViews>
   <sheets>
     <sheet name="PIB actividad economica" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="PIB_actividad_economica" localSheetId="0">'PIB actividad economica'!$A$1:$MD$28</definedName>
+    <definedName name="PIB_actividad_economica" localSheetId="0">'PIB actividad economica'!$A$1:$MD$29</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -23,14 +23,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\rcant\Dropbox (CIEP)\TemplateCIEP\basesCIEP\INEGI\SCN\PIB actividad economica.IQY" name="PIB actividad economica" type="4" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" odcFile="C:\Users\rcant\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\PIB actividad economica.IQY" name="PIB actividad economica" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="http://www.inegi.org.mx/sistemas/BIE/ConsultaExporta.aspx" post="aamin=2003&amp;aamax=9999&amp;cveser=,500000,500001,500002,500003,500004,500005,500006,500007,500008,500009,500010,500011,500012,500013,500014,500015,500016,500017,500018,500019,500020,500021,500022,500023,500024,500025,500026,500027,500028,500029,500030,500031,500032,500033,500034,500035,500036,500037,500038,500039,500040,500041,500042,500043,500044,500045,500046,500047,500048,500049,500050,500051,500052,500053,500054,500055,500056,500057,500058,500059,500060,500061,500062,500063,500064,500065,500066,500067,500068,500069,500070,500071,500072,500073,500074,500075,500076,500077,500078,500079,500080,500081,500082,500083,500084,500085,500086,500087,500088,500089,500090,500091,500092,500093,500094,500095,500096,500097,500098,500099,500100,500101,500102,500103,500104,500105,500106,500107,500108,500109,500110,500111,500112,500113,500114,500115,500116,500117,500118,500119,500120,500121,500122,500123,500124,500125,500126,500127,500128,500129,500130,500131,500132,500133,500134,500135,500136,500137,500138,500139,500140,500141,500142,500143,500144,500145,500146,500147,500148,500149,500150,500151,500152,500153,500154,500155,500156,500157,500158,500159,500160,500161,500162,500163,500164,500165,500166,500167,500168,500169,500170,500171,500172,500173,500174,500175,500176,500177,500178,500179,500180,500181,500182,500183,500184,500185,500186,500187,500188,500189,500190,500191,500192,500193,500194,500195,500196,500197,500198,500199,500200,500201,500202,500203,500204,500205,500206,500207,500208,500209,500210,500211,500212,500213,500214,500215,500216,500217,500218,500219,500220,500221,500222,500223,500224,500225,500226,500227,500228,500229,500230,500231,500232,500233,500234,500235,500236,500237,500238,500239,500240,500241,500242,500243,500244,500245,500246,500247,500248,500249,500250,500251,500252,500253,500254,500255,500256,500257,500258,500259,500260,500261,500262,500263,500264,500265,500266,500267,500268,500269,500270,500271,500272,500273,500274,500275,500276,500277,500278,500279,500280,500281,500282,500283,500284,500285,500286,500287,500288,500289,500290,500291,500292,500293,500294,500295,500296,500297,500298,500299,500300,500301,500302,500303,500304,500305,500306,500307,500308,500309,500310,500311,500312,500313,500314,500315,500316,500317,500318,500319,500320,500321,500322,500323,500324,500325,500326,500327,500328,500329,500330,500331,500332,500333,500334,500335,500336,500337,500338,500339,500340,&amp;ordena=a&amp;ordenaPeriodo=ap&amp;orientacion=v&amp;frecuencia=Todo&amp;estadistico=False&amp;esquema=&amp;bdesplaza=False&amp;FileFormat=iqy" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="445">
   <si>
     <r>
       <t>Unidad de medida:</t>
@@ -1383,7 +1383,7 @@
   </si>
   <si>
     <r>
-      <t>2020</t>
+      <t>2021</t>
     </r>
     <r>
       <rPr>
@@ -1428,7 +1428,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> A partir de 2020</t>
+      <t xml:space="preserve"> A partir de 2021</t>
     </r>
   </si>
   <si>
@@ -1447,7 +1447,7 @@
     </r>
   </si>
   <si>
-    <t>Fecha de consulta: 01/12/2021 9:53:52</t>
+    <t>Fecha de consulta: 03/01/2023 19:25:46</t>
   </si>
 </sst>
 </file>
@@ -2293,7 +2293,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:MD28"/>
+  <dimension ref="A1:MD29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21156,16 +21156,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="4">
-        <v>24453296.226</v>
+        <v>24445735.083999999</v>
       </c>
       <c r="C20" s="4">
         <v>1429702.172</v>
       </c>
       <c r="D20" s="4">
-        <v>23023594.054000001</v>
+        <v>23016032.912</v>
       </c>
       <c r="E20" s="4">
-        <v>830021.40700000001</v>
+        <v>829009.772</v>
       </c>
       <c r="F20" s="4">
         <v>527510.79799999995</v>
@@ -21186,7 +21186,7 @@
         <v>108825.088</v>
       </c>
       <c r="L20" s="4">
-        <v>253191.35800000001</v>
+        <v>253191.55100000001</v>
       </c>
       <c r="M20" s="4">
         <v>134128.92300000001</v>
@@ -21204,31 +21204,31 @@
         <v>5948.1059999999998</v>
       </c>
       <c r="R20" s="4">
-        <v>1602.5050000000001</v>
+        <v>1602.6980000000001</v>
       </c>
       <c r="S20" s="4">
-        <v>25021.008999999998</v>
+        <v>24051.277999999998</v>
       </c>
       <c r="T20" s="4">
         <v>88.120999999999995</v>
       </c>
       <c r="U20" s="4">
-        <v>11427.51</v>
+        <v>11090.637000000001</v>
       </c>
       <c r="V20" s="4">
-        <v>13505.378000000001</v>
+        <v>12872.52</v>
       </c>
       <c r="W20" s="4">
-        <v>21351.741999999998</v>
+        <v>21355.667000000001</v>
       </c>
       <c r="X20" s="4">
         <v>20890.656999999999</v>
       </c>
       <c r="Y20" s="4">
-        <v>461.08499999999998</v>
+        <v>465.01</v>
       </c>
       <c r="Z20" s="4">
-        <v>2946.5</v>
+        <v>2900.4780000000001</v>
       </c>
       <c r="AA20" s="4">
         <v>2056.5439999999999</v>
@@ -21237,16 +21237,16 @@
         <v>84.912000000000006</v>
       </c>
       <c r="AC20" s="4">
-        <v>805.04399999999998</v>
+        <v>759.02200000000005</v>
       </c>
       <c r="AD20" s="4">
-        <v>1056673.4350000001</v>
+        <v>1050203.442</v>
       </c>
       <c r="AE20" s="4">
         <v>694006.82799999998</v>
       </c>
       <c r="AF20" s="4">
-        <v>268359.10100000002</v>
+        <v>261889.10800000001</v>
       </c>
       <c r="AG20" s="4">
         <v>9424.3880000000008</v>
@@ -21255,7 +21255,7 @@
         <v>173551.269</v>
       </c>
       <c r="AI20" s="4">
-        <v>85383.444000000003</v>
+        <v>78913.451000000001</v>
       </c>
       <c r="AJ20" s="4">
         <v>94307.505999999994</v>
@@ -21318,7 +21318,7 @@
         <v>227879.32500000001</v>
       </c>
       <c r="BD20" s="4">
-        <v>4216824.4040000001</v>
+        <v>4217956.4230000004</v>
       </c>
       <c r="BE20" s="4">
         <v>852903.53500000003</v>
@@ -21429,58 +21429,58 @@
         <v>23183.388999999999</v>
       </c>
       <c r="CO20" s="4">
-        <v>139132.057</v>
+        <v>139374.64199999999</v>
       </c>
       <c r="CP20" s="4">
-        <v>239677</v>
+        <v>241317.715</v>
       </c>
       <c r="CQ20" s="4">
-        <v>72740.191000000006</v>
+        <v>73192.266000000003</v>
       </c>
       <c r="CR20" s="4">
-        <v>27481.661</v>
+        <v>26310.769</v>
       </c>
       <c r="CS20" s="4">
-        <v>11898.151</v>
+        <v>12386.812</v>
       </c>
       <c r="CT20" s="4">
-        <v>44298.845999999998</v>
+        <v>45156.237999999998</v>
       </c>
       <c r="CU20" s="4">
-        <v>17091.214</v>
+        <v>17186.087</v>
       </c>
       <c r="CV20" s="4">
-        <v>46582.468999999997</v>
+        <v>46084.703999999998</v>
       </c>
       <c r="CW20" s="4">
-        <v>19584.468000000001</v>
+        <v>21000.839</v>
       </c>
       <c r="CX20" s="4">
-        <v>130137.988</v>
+        <v>126980.31600000001</v>
       </c>
       <c r="CY20" s="4">
-        <v>100001.299</v>
+        <v>96628.985000000001</v>
       </c>
       <c r="CZ20" s="4">
-        <v>30136.688999999998</v>
+        <v>30351.330999999998</v>
       </c>
       <c r="DA20" s="4">
-        <v>107134.48299999999</v>
+        <v>108181.086</v>
       </c>
       <c r="DB20" s="4">
-        <v>20964.609</v>
+        <v>21332.802</v>
       </c>
       <c r="DC20" s="4">
-        <v>38835.623</v>
+        <v>38458.281999999999</v>
       </c>
       <c r="DD20" s="4">
-        <v>31366.701000000001</v>
+        <v>32157.82</v>
       </c>
       <c r="DE20" s="4">
-        <v>7752.6379999999999</v>
+        <v>7758.4210000000003</v>
       </c>
       <c r="DF20" s="4">
-        <v>8214.9120000000003</v>
+        <v>8473.7610000000004</v>
       </c>
       <c r="DG20" s="4">
         <v>236286.19699999999</v>
@@ -21627,13 +21627,13 @@
         <v>7247.6940000000004</v>
       </c>
       <c r="FC20" s="4">
-        <v>106854.81299999999</v>
+        <v>108214.601</v>
       </c>
       <c r="FD20" s="4">
-        <v>54073.714</v>
+        <v>54798.525000000001</v>
       </c>
       <c r="FE20" s="4">
-        <v>52781.099000000002</v>
+        <v>53416.076000000001</v>
       </c>
       <c r="FF20" s="4">
         <v>2258251.6359999999</v>
@@ -21741,7 +21741,7 @@
         <v>16776.077000000001</v>
       </c>
       <c r="GO20" s="4">
-        <v>378636.93400000001</v>
+        <v>377425.40100000001</v>
       </c>
       <c r="GP20" s="4">
         <v>21528.653999999999</v>
@@ -21771,7 +21771,7 @@
         <v>211.886</v>
       </c>
       <c r="GY20" s="4">
-        <v>283412.772</v>
+        <v>282201.239</v>
       </c>
       <c r="GZ20" s="4">
         <v>156398.26699999999</v>
@@ -21783,7 +21783,7 @@
         <v>450.66</v>
       </c>
       <c r="HC20" s="4">
-        <v>9429.9599999999991</v>
+        <v>8218.4269999999997</v>
       </c>
       <c r="HD20" s="4">
         <v>2800.8020000000001</v>
@@ -22179,42 +22179,42 @@
         <v>438</v>
       </c>
     </row>
-    <row r="21" spans="1:342" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A21" s="4" t="s">
-        <v>439</v>
+    <row r="21" spans="1:342" x14ac:dyDescent="0.45">
+      <c r="A21" s="4">
+        <v>2020</v>
       </c>
       <c r="B21" s="4">
-        <v>23357377.84</v>
+        <v>23430377.458000001</v>
       </c>
       <c r="C21" s="4">
-        <v>1473348.8189999999</v>
+        <v>1471812.9210000001</v>
       </c>
       <c r="D21" s="4">
-        <v>21884029.021000002</v>
+        <v>21958564.537</v>
       </c>
       <c r="E21" s="4">
-        <v>887229.16099999996</v>
+        <v>889312.772</v>
       </c>
       <c r="F21" s="4">
-        <v>570148.95200000005</v>
+        <v>570161.83100000001</v>
       </c>
       <c r="G21" s="4">
-        <v>142541.09</v>
+        <v>142546.23499999999</v>
       </c>
       <c r="H21" s="4">
-        <v>86172.637000000002</v>
+        <v>86175.138999999996</v>
       </c>
       <c r="I21" s="4">
-        <v>154221.09599999999</v>
+        <v>154223.446</v>
       </c>
       <c r="J21" s="4">
-        <v>73482.282999999996</v>
+        <v>73482.767999999996</v>
       </c>
       <c r="K21" s="4">
-        <v>113731.84600000001</v>
+        <v>113734.243</v>
       </c>
       <c r="L21" s="4">
-        <v>268641.49400000001</v>
+        <v>268630.12199999997</v>
       </c>
       <c r="M21" s="4">
         <v>141421.321</v>
@@ -22229,34 +22229,34 @@
         <v>6964.4309999999996</v>
       </c>
       <c r="Q21" s="4">
-        <v>6612.817</v>
+        <v>6601.0659999999998</v>
       </c>
       <c r="R21" s="4">
-        <v>1421.097</v>
+        <v>1421.4760000000001</v>
       </c>
       <c r="S21" s="4">
-        <v>24507.514999999999</v>
+        <v>26550.133999999998</v>
       </c>
       <c r="T21" s="4">
         <v>70.992999999999995</v>
       </c>
       <c r="U21" s="4">
-        <v>11856.462</v>
+        <v>13871.174999999999</v>
       </c>
       <c r="V21" s="4">
-        <v>12580.06</v>
+        <v>12607.966</v>
       </c>
       <c r="W21" s="4">
-        <v>21191.137999999999</v>
+        <v>21183.171999999999</v>
       </c>
       <c r="X21" s="4">
-        <v>20705.888999999999</v>
+        <v>20698.857</v>
       </c>
       <c r="Y21" s="4">
-        <v>485.24900000000002</v>
+        <v>484.315</v>
       </c>
       <c r="Z21" s="4">
-        <v>2740.0619999999999</v>
+        <v>2787.5129999999999</v>
       </c>
       <c r="AA21" s="4">
         <v>1862.328</v>
@@ -22265,28 +22265,28 @@
         <v>85.366</v>
       </c>
       <c r="AC21" s="4">
-        <v>792.36800000000005</v>
+        <v>839.81899999999996</v>
       </c>
       <c r="AD21" s="4">
-        <v>917664.72600000002</v>
+        <v>931606.81900000002</v>
       </c>
       <c r="AE21" s="4">
         <v>493455.565</v>
       </c>
       <c r="AF21" s="4">
-        <v>316240.28399999999</v>
+        <v>330051.32</v>
       </c>
       <c r="AG21" s="4">
         <v>6012.2939999999999</v>
       </c>
       <c r="AH21" s="4">
-        <v>218733.46799999999</v>
+        <v>218952.361</v>
       </c>
       <c r="AI21" s="4">
-        <v>91494.521999999997</v>
+        <v>105086.66499999999</v>
       </c>
       <c r="AJ21" s="4">
-        <v>107968.87699999999</v>
+        <v>108099.93399999999</v>
       </c>
       <c r="AK21" s="4">
         <v>483051.52299999999</v>
@@ -22304,34 +22304,34 @@
         <v>120.27500000000001</v>
       </c>
       <c r="AP21" s="4">
-        <v>1490548.487</v>
+        <v>1496323.3330000001</v>
       </c>
       <c r="AQ21" s="4">
-        <v>1060852.662</v>
+        <v>1054689.601</v>
       </c>
       <c r="AR21" s="4">
-        <v>804259.18900000001</v>
+        <v>804250.70900000003</v>
       </c>
       <c r="AS21" s="4">
-        <v>256593.473</v>
+        <v>250438.89199999999</v>
       </c>
       <c r="AT21" s="4">
-        <v>220257.66500000001</v>
+        <v>230756.05600000001</v>
       </c>
       <c r="AU21" s="4">
-        <v>56708.661999999997</v>
+        <v>56728.749000000003</v>
       </c>
       <c r="AV21" s="4">
-        <v>41994.78</v>
+        <v>46729.902000000002</v>
       </c>
       <c r="AW21" s="4">
-        <v>105894.216</v>
+        <v>111662.55</v>
       </c>
       <c r="AX21" s="4">
-        <v>15660.007</v>
+        <v>15634.855</v>
       </c>
       <c r="AY21" s="4">
-        <v>209438.16</v>
+        <v>210877.67600000001</v>
       </c>
       <c r="AZ21" s="4" t="s">
         <v>438</v>
@@ -22343,334 +22343,334 @@
         <v>438</v>
       </c>
       <c r="BC21" s="4">
-        <v>209438.16</v>
+        <v>210877.67600000001</v>
       </c>
       <c r="BD21" s="4">
-        <v>4027336.0589999999</v>
+        <v>4070507.358</v>
       </c>
       <c r="BE21" s="4">
-        <v>892833.98699999996</v>
+        <v>890928.69700000004</v>
       </c>
       <c r="BF21" s="4">
-        <v>28999.393</v>
+        <v>28959.951000000001</v>
       </c>
       <c r="BG21" s="4">
-        <v>72442.198000000004</v>
+        <v>72892.307000000001</v>
       </c>
       <c r="BH21" s="4">
-        <v>56328.658000000003</v>
+        <v>56451.697999999997</v>
       </c>
       <c r="BI21" s="4">
-        <v>32308.799999999999</v>
+        <v>32048.434000000001</v>
       </c>
       <c r="BJ21" s="4">
-        <v>79935.543000000005</v>
+        <v>79626.210999999996</v>
       </c>
       <c r="BK21" s="4">
-        <v>226933.20600000001</v>
+        <v>224169.14600000001</v>
       </c>
       <c r="BL21" s="4">
-        <v>4522.2489999999998</v>
+        <v>4544.5839999999998</v>
       </c>
       <c r="BM21" s="4">
-        <v>269761.38400000002</v>
+        <v>270457.97700000001</v>
       </c>
       <c r="BN21" s="4">
-        <v>121602.556</v>
+        <v>121778.389</v>
       </c>
       <c r="BO21" s="4">
-        <v>255908.08100000001</v>
+        <v>259722.511</v>
       </c>
       <c r="BP21" s="4">
-        <v>223412.49799999999</v>
+        <v>227215.41</v>
       </c>
       <c r="BQ21" s="4">
-        <v>32495.582999999999</v>
+        <v>32507.100999999999</v>
       </c>
       <c r="BR21" s="4">
-        <v>23762.954000000002</v>
+        <v>24193.973000000002</v>
       </c>
       <c r="BS21" s="4">
-        <v>4177.5079999999998</v>
+        <v>4215.1459999999997</v>
       </c>
       <c r="BT21" s="4">
-        <v>15994.852999999999</v>
+        <v>16249.066000000001</v>
       </c>
       <c r="BU21" s="4">
-        <v>3590.5929999999998</v>
+        <v>3729.761</v>
       </c>
       <c r="BV21" s="4">
-        <v>16487.999</v>
+        <v>16570.66</v>
       </c>
       <c r="BW21" s="4">
-        <v>6065.9110000000001</v>
+        <v>6101.58</v>
       </c>
       <c r="BX21" s="4">
-        <v>10422.088</v>
+        <v>10469.08</v>
       </c>
       <c r="BY21" s="4">
-        <v>56507.686000000002</v>
+        <v>56752.468000000001</v>
       </c>
       <c r="BZ21" s="4">
-        <v>5990.0150000000003</v>
+        <v>6004.6419999999998</v>
       </c>
       <c r="CA21" s="4">
-        <v>48020.618999999999</v>
+        <v>48243.408000000003</v>
       </c>
       <c r="CB21" s="4">
-        <v>2497.0520000000001</v>
+        <v>2504.4180000000001</v>
       </c>
       <c r="CC21" s="4">
-        <v>19862.356</v>
+        <v>19942.605</v>
       </c>
       <c r="CD21" s="4">
-        <v>4942.4809999999998</v>
+        <v>4926.4359999999997</v>
       </c>
       <c r="CE21" s="4">
-        <v>12996.264999999999</v>
+        <v>13093.454</v>
       </c>
       <c r="CF21" s="4">
-        <v>1923.61</v>
+        <v>1922.7149999999999</v>
       </c>
       <c r="CG21" s="4">
-        <v>31816.738000000001</v>
+        <v>31979.83</v>
       </c>
       <c r="CH21" s="4">
-        <v>16214.27</v>
+        <v>16155.423000000001</v>
       </c>
       <c r="CI21" s="4">
-        <v>1027.1500000000001</v>
+        <v>1023.306</v>
       </c>
       <c r="CJ21" s="4">
-        <v>14575.317999999999</v>
+        <v>14801.101000000001</v>
       </c>
       <c r="CK21" s="4">
-        <v>74515.180999999997</v>
+        <v>75603.789999999994</v>
       </c>
       <c r="CL21" s="4">
-        <v>23588.136999999999</v>
+        <v>24120.243999999999</v>
       </c>
       <c r="CM21" s="4">
-        <v>50927.044000000002</v>
+        <v>51483.546000000002</v>
       </c>
       <c r="CN21" s="4">
-        <v>21151.164000000001</v>
+        <v>21256.649000000001</v>
       </c>
       <c r="CO21" s="4">
-        <v>144527.87100000001</v>
+        <v>145003.715</v>
       </c>
       <c r="CP21" s="4">
-        <v>238382.33499999999</v>
+        <v>240928.321</v>
       </c>
       <c r="CQ21" s="4">
-        <v>70528.021999999997</v>
+        <v>71278.178</v>
       </c>
       <c r="CR21" s="4">
-        <v>24806.79</v>
+        <v>22909.219000000001</v>
       </c>
       <c r="CS21" s="4">
-        <v>11649.874</v>
+        <v>12656.777</v>
       </c>
       <c r="CT21" s="4">
-        <v>47037.190999999999</v>
+        <v>48214.843000000001</v>
       </c>
       <c r="CU21" s="4">
-        <v>16174.331</v>
+        <v>16350.007</v>
       </c>
       <c r="CV21" s="4">
-        <v>48714.533000000003</v>
+        <v>47352.116999999998</v>
       </c>
       <c r="CW21" s="4">
-        <v>19471.594000000001</v>
+        <v>22167.18</v>
       </c>
       <c r="CX21" s="4">
-        <v>122251.83900000001</v>
+        <v>119928.228</v>
       </c>
       <c r="CY21" s="4">
-        <v>94099.581999999995</v>
+        <v>93119.938999999998</v>
       </c>
       <c r="CZ21" s="4">
-        <v>28152.257000000001</v>
+        <v>26808.289000000001</v>
       </c>
       <c r="DA21" s="4">
-        <v>100303.74800000001</v>
+        <v>107183.59</v>
       </c>
       <c r="DB21" s="4">
-        <v>19712.563999999998</v>
+        <v>21479.727999999999</v>
       </c>
       <c r="DC21" s="4">
-        <v>34690.061000000002</v>
+        <v>34389.309000000001</v>
       </c>
       <c r="DD21" s="4">
-        <v>30688.383000000002</v>
+        <v>33401.050999999999</v>
       </c>
       <c r="DE21" s="4">
-        <v>7400.23</v>
+        <v>8851.2839999999997</v>
       </c>
       <c r="DF21" s="4">
-        <v>7812.51</v>
+        <v>9062.2180000000008</v>
       </c>
       <c r="DG21" s="4">
-        <v>236765.61900000001</v>
+        <v>242619.25099999999</v>
       </c>
       <c r="DH21" s="4">
-        <v>72422.607999999993</v>
+        <v>75084.392000000007</v>
       </c>
       <c r="DI21" s="4">
-        <v>43616.182999999997</v>
+        <v>44698.324999999997</v>
       </c>
       <c r="DJ21" s="4">
-        <v>14773.606</v>
+        <v>15554.571</v>
       </c>
       <c r="DK21" s="4">
-        <v>97196.183000000005</v>
+        <v>98215.942999999999</v>
       </c>
       <c r="DL21" s="4">
-        <v>8757.0390000000007</v>
+        <v>9066.02</v>
       </c>
       <c r="DM21" s="4">
-        <v>141149.807</v>
+        <v>142853.12400000001</v>
       </c>
       <c r="DN21" s="4">
-        <v>5843.1229999999996</v>
+        <v>6011.5429999999997</v>
       </c>
       <c r="DO21" s="4">
-        <v>13956.41</v>
+        <v>13963.745000000001</v>
       </c>
       <c r="DP21" s="4">
-        <v>37831.957999999999</v>
+        <v>38068.182999999997</v>
       </c>
       <c r="DQ21" s="4">
-        <v>10361.485000000001</v>
+        <v>10495.355</v>
       </c>
       <c r="DR21" s="4">
-        <v>7380.6090000000004</v>
+        <v>7356.9570000000003</v>
       </c>
       <c r="DS21" s="4">
-        <v>8596.6489999999994</v>
+        <v>8808.5730000000003</v>
       </c>
       <c r="DT21" s="4">
-        <v>12000.041999999999</v>
+        <v>12037.369000000001</v>
       </c>
       <c r="DU21" s="4">
-        <v>15032.174000000001</v>
+        <v>15780.499</v>
       </c>
       <c r="DV21" s="4">
-        <v>30147.357</v>
+        <v>30330.9</v>
       </c>
       <c r="DW21" s="4">
-        <v>152474.62299999999</v>
+        <v>153695.76</v>
       </c>
       <c r="DX21" s="4">
-        <v>13746.19</v>
+        <v>14054.271000000001</v>
       </c>
       <c r="DY21" s="4">
-        <v>11164.710999999999</v>
+        <v>11117.284</v>
       </c>
       <c r="DZ21" s="4">
-        <v>2474.19</v>
+        <v>2561.9470000000001</v>
       </c>
       <c r="EA21" s="4">
-        <v>30825.644</v>
+        <v>31335.98</v>
       </c>
       <c r="EB21" s="4">
-        <v>2310.759</v>
+        <v>2353.88</v>
       </c>
       <c r="EC21" s="4">
         <v>52833.171000000002</v>
       </c>
       <c r="ED21" s="4">
-        <v>39119.957999999999</v>
+        <v>39439.226999999999</v>
       </c>
       <c r="EE21" s="4">
-        <v>378857.05300000001</v>
+        <v>378866.92300000001</v>
       </c>
       <c r="EF21" s="4">
-        <v>133337.34099999999</v>
+        <v>133863.93799999999</v>
       </c>
       <c r="EG21" s="4">
-        <v>53034.266000000003</v>
+        <v>52808.476000000002</v>
       </c>
       <c r="EH21" s="4">
-        <v>68260.486999999994</v>
+        <v>68300.778999999995</v>
       </c>
       <c r="EI21" s="4">
-        <v>100304.29300000001</v>
+        <v>100206.837</v>
       </c>
       <c r="EJ21" s="4">
-        <v>22140.880000000001</v>
+        <v>21876.996999999999</v>
       </c>
       <c r="EK21" s="4">
-        <v>1779.7860000000001</v>
+        <v>1809.896</v>
       </c>
       <c r="EL21" s="4">
-        <v>135827.253</v>
+        <v>138357.522</v>
       </c>
       <c r="EM21" s="4">
-        <v>5875.4539999999997</v>
+        <v>5931.52</v>
       </c>
       <c r="EN21" s="4">
-        <v>23949.690999999999</v>
+        <v>24004.796999999999</v>
       </c>
       <c r="EO21" s="4">
-        <v>55916.716</v>
+        <v>57006.629000000001</v>
       </c>
       <c r="EP21" s="4">
-        <v>50085.392</v>
+        <v>51414.576000000001</v>
       </c>
       <c r="EQ21" s="4">
-        <v>842339.36399999994</v>
+        <v>859143.24</v>
       </c>
       <c r="ER21" s="4">
-        <v>432734.26199999999</v>
+        <v>445238.02</v>
       </c>
       <c r="ES21" s="4">
-        <v>13652.050999999999</v>
+        <v>13389.736000000001</v>
       </c>
       <c r="ET21" s="4">
-        <v>333106.88199999998</v>
+        <v>336490.78700000001</v>
       </c>
       <c r="EU21" s="4">
-        <v>24495.287</v>
+        <v>24683.462</v>
       </c>
       <c r="EV21" s="4">
-        <v>19564.831999999999</v>
+        <v>20535.958999999999</v>
       </c>
       <c r="EW21" s="4">
-        <v>1459.752</v>
+        <v>1497.288</v>
       </c>
       <c r="EX21" s="4">
-        <v>17326.297999999999</v>
+        <v>17307.988000000001</v>
       </c>
       <c r="EY21" s="4">
-        <v>38813.476999999999</v>
+        <v>38935.686999999998</v>
       </c>
       <c r="EZ21" s="4">
-        <v>26784.483</v>
+        <v>26821.224999999999</v>
       </c>
       <c r="FA21" s="4">
-        <v>5200.1319999999996</v>
+        <v>5220.1949999999997</v>
       </c>
       <c r="FB21" s="4">
-        <v>6828.8620000000001</v>
+        <v>6894.2669999999998</v>
       </c>
       <c r="FC21" s="4">
-        <v>102796.924</v>
+        <v>106040.814</v>
       </c>
       <c r="FD21" s="4">
-        <v>57434.091</v>
+        <v>59109.601000000002</v>
       </c>
       <c r="FE21" s="4">
-        <v>45362.832999999999</v>
+        <v>46931.213000000003</v>
       </c>
       <c r="FF21" s="4">
-        <v>2176248.1979999999</v>
+        <v>2173452.7689999999</v>
       </c>
       <c r="FG21" s="4">
-        <v>2179162.148</v>
+        <v>2178851.6940000001</v>
       </c>
       <c r="FH21" s="4">
-        <v>1279108.7420000001</v>
+        <v>1275752.3770000001</v>
       </c>
       <c r="FI21" s="4">
         <v>30240.848999999998</v>
@@ -22694,13 +22694,13 @@
         <v>216.71600000000001</v>
       </c>
       <c r="FP21" s="4">
-        <v>721951.06700000004</v>
+        <v>723241.33299999998</v>
       </c>
       <c r="FQ21" s="4">
-        <v>291320.29499999998</v>
+        <v>290355.91899999999</v>
       </c>
       <c r="FR21" s="4">
-        <v>86190.010999999999</v>
+        <v>85225.634999999995</v>
       </c>
       <c r="FS21" s="4">
         <v>88076.785000000003</v>
@@ -22739,10 +22739,10 @@
         <v>3.3170000000000002</v>
       </c>
       <c r="GE21" s="4">
-        <v>101485.61599999999</v>
+        <v>97803.361000000004</v>
       </c>
       <c r="GF21" s="4">
-        <v>25839.649000000001</v>
+        <v>22157.394</v>
       </c>
       <c r="GG21" s="4">
         <v>588.61</v>
@@ -22769,7 +22769,7 @@
         <v>17480.25</v>
       </c>
       <c r="GO21" s="4">
-        <v>355710.08799999999</v>
+        <v>354560.03200000001</v>
       </c>
       <c r="GP21" s="4">
         <v>21204.769</v>
@@ -22799,7 +22799,7 @@
         <v>182.40899999999999</v>
       </c>
       <c r="GY21" s="4">
-        <v>291728.13</v>
+        <v>290578.07400000002</v>
       </c>
       <c r="GZ21" s="4">
         <v>160953.03899999999</v>
@@ -22811,7 +22811,7 @@
         <v>481.31</v>
       </c>
       <c r="HC21" s="4">
-        <v>9783.4879999999994</v>
+        <v>8633.4320000000007</v>
       </c>
       <c r="HD21" s="4">
         <v>2497.268</v>
@@ -22820,13 +22820,13 @@
         <v>1013.345</v>
       </c>
       <c r="HF21" s="4">
-        <v>983644.01699999999</v>
+        <v>985552.48600000003</v>
       </c>
       <c r="HG21" s="4">
         <v>38513.961000000003</v>
       </c>
       <c r="HH21" s="4">
-        <v>774056.13199999998</v>
+        <v>774062.42200000002</v>
       </c>
       <c r="HI21" s="4">
         <v>502807.95400000003</v>
@@ -22838,31 +22838,31 @@
         <v>68843.335999999996</v>
       </c>
       <c r="HL21" s="4">
-        <v>93984.248000000007</v>
+        <v>93990.538</v>
       </c>
       <c r="HM21" s="4">
         <v>1779.7619999999999</v>
       </c>
       <c r="HN21" s="4">
-        <v>19255.634999999998</v>
+        <v>19376.109</v>
       </c>
       <c r="HO21" s="4">
         <v>14590.829</v>
       </c>
       <c r="HP21" s="4">
-        <v>1230.069</v>
+        <v>1350.5429999999999</v>
       </c>
       <c r="HQ21" s="4">
         <v>3434.7370000000001</v>
       </c>
       <c r="HR21" s="4">
-        <v>151818.28899999999</v>
+        <v>153599.99400000001</v>
       </c>
       <c r="HS21" s="4">
         <v>74336.604000000007</v>
       </c>
       <c r="HT21" s="4">
-        <v>77481.684999999998</v>
+        <v>79263.39</v>
       </c>
       <c r="HU21" s="4">
         <v>2422437.06</v>
@@ -22967,19 +22967,19 @@
         <v>10374.555</v>
       </c>
       <c r="JC21" s="4">
-        <v>909248.85</v>
+        <v>900310.11300000001</v>
       </c>
       <c r="JD21" s="4">
-        <v>909248.85</v>
+        <v>900310.11300000001</v>
       </c>
       <c r="JE21" s="4">
-        <v>638535.14899999998</v>
+        <v>629444.42500000005</v>
       </c>
       <c r="JF21" s="4">
         <v>394.12799999999999</v>
       </c>
       <c r="JG21" s="4">
-        <v>263558.36900000001</v>
+        <v>263710.35600000003</v>
       </c>
       <c r="JH21" s="4">
         <v>1256.1890000000001</v>
@@ -22994,16 +22994,16 @@
         <v>321.66399999999999</v>
       </c>
       <c r="JL21" s="4">
-        <v>583457.71799999999</v>
+        <v>607643.59400000004</v>
       </c>
       <c r="JM21" s="4">
-        <v>255341.60200000001</v>
+        <v>270831.81199999998</v>
       </c>
       <c r="JN21" s="4">
-        <v>201965.467</v>
+        <v>216932.57800000001</v>
       </c>
       <c r="JO21" s="4">
-        <v>35377.625</v>
+        <v>35900.724000000002</v>
       </c>
       <c r="JP21" s="4">
         <v>3855.0349999999999</v>
@@ -23021,16 +23021,16 @@
         <v>997.30600000000004</v>
       </c>
       <c r="JU21" s="4">
-        <v>314165.73499999999</v>
+        <v>322861.40100000001</v>
       </c>
       <c r="JV21" s="4">
-        <v>231771.53400000001</v>
+        <v>238265.14799999999</v>
       </c>
       <c r="JW21" s="4">
         <v>170.804</v>
       </c>
       <c r="JX21" s="4">
-        <v>82223.396999999997</v>
+        <v>84425.448999999993</v>
       </c>
       <c r="JY21" s="4">
         <v>2204.5810000000001</v>
@@ -23099,19 +23099,19 @@
         <v>6982.8310000000001</v>
       </c>
       <c r="KU21" s="4">
-        <v>322003.14299999998</v>
+        <v>330322.245</v>
       </c>
       <c r="KV21" s="4">
-        <v>125301.499</v>
+        <v>133620.601</v>
       </c>
       <c r="KW21" s="4">
-        <v>124567.85799999999</v>
+        <v>132660.95000000001</v>
       </c>
       <c r="KX21" s="4">
-        <v>66.165999999999997</v>
+        <v>85.823999999999998</v>
       </c>
       <c r="KY21" s="4">
-        <v>667.47500000000002</v>
+        <v>873.827</v>
       </c>
       <c r="KZ21" s="4">
         <v>196701.644</v>
@@ -23126,13 +23126,13 @@
         <v>158390.27600000001</v>
       </c>
       <c r="LD21" s="4">
-        <v>418949.39600000001</v>
+        <v>420353.54200000002</v>
       </c>
       <c r="LE21" s="4">
-        <v>87387.960999999996</v>
+        <v>87349.104999999996</v>
       </c>
       <c r="LF21" s="4">
-        <v>56387.499000000003</v>
+        <v>56347.286</v>
       </c>
       <c r="LG21" s="4">
         <v>5780.6549999999997</v>
@@ -23141,10 +23141,10 @@
         <v>13078.444</v>
       </c>
       <c r="LI21" s="4">
-        <v>12141.362999999999</v>
+        <v>12142.72</v>
       </c>
       <c r="LJ21" s="4">
-        <v>179572.93400000001</v>
+        <v>180381.777</v>
       </c>
       <c r="LK21" s="4">
         <v>20235.684000000001</v>
@@ -23153,7 +23153,7 @@
         <v>7286.4040000000005</v>
       </c>
       <c r="LM21" s="4">
-        <v>3629.9720000000002</v>
+        <v>4438.8149999999996</v>
       </c>
       <c r="LN21" s="4">
         <v>31639.524000000001</v>
@@ -23162,40 +23162,40 @@
         <v>116781.35</v>
       </c>
       <c r="LP21" s="4">
-        <v>45266.919000000002</v>
+        <v>45901.078000000001</v>
       </c>
       <c r="LQ21" s="4">
         <v>8742.3320000000003</v>
       </c>
       <c r="LR21" s="4">
-        <v>36524.587</v>
+        <v>37158.745999999999</v>
       </c>
       <c r="LS21" s="4">
         <v>106721.58199999999</v>
       </c>
       <c r="LT21" s="4">
-        <v>939048.06900000002</v>
+        <v>929345.18400000001</v>
       </c>
       <c r="LU21" s="4">
-        <v>939048.06900000002</v>
+        <v>929345.18400000001</v>
       </c>
       <c r="LV21" s="4">
-        <v>86459.942999999999</v>
+        <v>85763.881999999998</v>
       </c>
       <c r="LW21" s="4">
-        <v>178829.89300000001</v>
+        <v>174417.486</v>
       </c>
       <c r="LX21" s="4">
-        <v>65386.991000000002</v>
+        <v>63139.67</v>
       </c>
       <c r="LY21" s="4">
-        <v>255949.019</v>
+        <v>259053.00099999999</v>
       </c>
       <c r="LZ21" s="4">
-        <v>8305.7690000000002</v>
+        <v>8390.3040000000001</v>
       </c>
       <c r="MA21" s="4">
-        <v>266150.55300000001</v>
+        <v>260614.94</v>
       </c>
       <c r="MB21" s="4">
         <v>3206.0309999999999</v>
@@ -23207,355 +23207,1037 @@
         <v>438</v>
       </c>
     </row>
-    <row r="22" spans="1:342" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="1"/>
-      <c r="AM22" s="1"/>
-      <c r="AN22" s="1"/>
-      <c r="AO22" s="1"/>
-      <c r="AP22" s="1"/>
-      <c r="AQ22" s="1"/>
-      <c r="AR22" s="1"/>
-      <c r="AS22" s="1"/>
-      <c r="AT22" s="1"/>
-      <c r="AU22" s="1"/>
-      <c r="AV22" s="1"/>
-      <c r="AW22" s="1"/>
-      <c r="AX22" s="1"/>
-      <c r="AY22" s="1"/>
-      <c r="AZ22" s="1"/>
-      <c r="BA22" s="1"/>
-      <c r="BB22" s="1"/>
-      <c r="BC22" s="1"/>
-      <c r="BD22" s="1"/>
-      <c r="BE22" s="1"/>
-      <c r="BF22" s="1"/>
-      <c r="BG22" s="1"/>
-      <c r="BH22" s="1"/>
-      <c r="BI22" s="1"/>
-      <c r="BJ22" s="1"/>
-      <c r="BK22" s="1"/>
-      <c r="BL22" s="1"/>
-      <c r="BM22" s="1"/>
-      <c r="BN22" s="1"/>
-      <c r="BO22" s="1"/>
-      <c r="BP22" s="1"/>
-      <c r="BQ22" s="1"/>
-      <c r="BR22" s="1"/>
-      <c r="BS22" s="1"/>
-      <c r="BT22" s="1"/>
-      <c r="BU22" s="1"/>
-      <c r="BV22" s="1"/>
-      <c r="BW22" s="1"/>
-      <c r="BX22" s="1"/>
-      <c r="BY22" s="1"/>
-      <c r="BZ22" s="1"/>
-      <c r="CA22" s="1"/>
-      <c r="CB22" s="1"/>
-      <c r="CC22" s="1"/>
-      <c r="CD22" s="1"/>
-      <c r="CE22" s="1"/>
-      <c r="CF22" s="1"/>
-      <c r="CG22" s="1"/>
-      <c r="CH22" s="1"/>
-      <c r="CI22" s="1"/>
-      <c r="CJ22" s="1"/>
-      <c r="CK22" s="1"/>
-      <c r="CL22" s="1"/>
-      <c r="CM22" s="1"/>
-      <c r="CN22" s="1"/>
-      <c r="CO22" s="1"/>
-      <c r="CP22" s="1"/>
-      <c r="CQ22" s="1"/>
-      <c r="CR22" s="1"/>
-      <c r="CS22" s="1"/>
-      <c r="CT22" s="1"/>
-      <c r="CU22" s="1"/>
-      <c r="CV22" s="1"/>
-      <c r="CW22" s="1"/>
-      <c r="CX22" s="1"/>
-      <c r="CY22" s="1"/>
-      <c r="CZ22" s="1"/>
-      <c r="DA22" s="1"/>
-      <c r="DB22" s="1"/>
-      <c r="DC22" s="1"/>
-      <c r="DD22" s="1"/>
-      <c r="DE22" s="1"/>
-      <c r="DF22" s="1"/>
-      <c r="DG22" s="1"/>
-      <c r="DH22" s="1"/>
-      <c r="DI22" s="1"/>
-      <c r="DJ22" s="1"/>
-      <c r="DK22" s="1"/>
-      <c r="DL22" s="1"/>
-      <c r="DM22" s="1"/>
-      <c r="DN22" s="1"/>
-      <c r="DO22" s="1"/>
-      <c r="DP22" s="1"/>
-      <c r="DQ22" s="1"/>
-      <c r="DR22" s="1"/>
-      <c r="DS22" s="1"/>
-      <c r="DT22" s="1"/>
-      <c r="DU22" s="1"/>
-      <c r="DV22" s="1"/>
-      <c r="DW22" s="1"/>
-      <c r="DX22" s="1"/>
-      <c r="DY22" s="1"/>
-      <c r="DZ22" s="1"/>
-      <c r="EA22" s="1"/>
-      <c r="EB22" s="1"/>
-      <c r="EC22" s="1"/>
-      <c r="ED22" s="1"/>
-      <c r="EE22" s="1"/>
-      <c r="EF22" s="1"/>
-      <c r="EG22" s="1"/>
-      <c r="EH22" s="1"/>
-      <c r="EI22" s="1"/>
-      <c r="EJ22" s="1"/>
-      <c r="EK22" s="1"/>
-      <c r="EL22" s="1"/>
-      <c r="EM22" s="1"/>
-      <c r="EN22" s="1"/>
-      <c r="EO22" s="1"/>
-      <c r="EP22" s="1"/>
-      <c r="EQ22" s="1"/>
-      <c r="ER22" s="1"/>
-      <c r="ES22" s="1"/>
-      <c r="ET22" s="1"/>
-      <c r="EU22" s="1"/>
-      <c r="EV22" s="1"/>
-      <c r="EW22" s="1"/>
-      <c r="EX22" s="1"/>
-      <c r="EY22" s="1"/>
-      <c r="EZ22" s="1"/>
-      <c r="FA22" s="1"/>
-      <c r="FB22" s="1"/>
-      <c r="FC22" s="1"/>
-      <c r="FD22" s="1"/>
-      <c r="FE22" s="1"/>
-      <c r="FF22" s="1"/>
-      <c r="FG22" s="1"/>
-      <c r="FH22" s="1"/>
-      <c r="FI22" s="1"/>
-      <c r="FJ22" s="1"/>
-      <c r="FK22" s="1"/>
-      <c r="FL22" s="1"/>
-      <c r="FM22" s="1"/>
-      <c r="FN22" s="1"/>
-      <c r="FO22" s="1"/>
-      <c r="FP22" s="1"/>
-      <c r="FQ22" s="1"/>
-      <c r="FR22" s="1"/>
-      <c r="FS22" s="1"/>
-      <c r="FT22" s="1"/>
-      <c r="FU22" s="1"/>
-      <c r="FV22" s="1"/>
-      <c r="FW22" s="1"/>
-      <c r="FX22" s="1"/>
-      <c r="FY22" s="1"/>
-      <c r="FZ22" s="1"/>
-      <c r="GA22" s="1"/>
-      <c r="GB22" s="1"/>
-      <c r="GC22" s="1"/>
-      <c r="GD22" s="1"/>
-      <c r="GE22" s="1"/>
-      <c r="GF22" s="1"/>
-      <c r="GG22" s="1"/>
-      <c r="GH22" s="1"/>
-      <c r="GI22" s="1"/>
-      <c r="GJ22" s="1"/>
-      <c r="GK22" s="1"/>
-      <c r="GL22" s="1"/>
-      <c r="GM22" s="1"/>
-      <c r="GN22" s="1"/>
-      <c r="GO22" s="1"/>
-      <c r="GP22" s="1"/>
-      <c r="GQ22" s="1"/>
-      <c r="GR22" s="1"/>
-      <c r="GS22" s="1"/>
-      <c r="GT22" s="1"/>
-      <c r="GU22" s="1"/>
-      <c r="GV22" s="1"/>
-      <c r="GW22" s="1"/>
-      <c r="GX22" s="1"/>
-      <c r="GY22" s="1"/>
-      <c r="GZ22" s="1"/>
-      <c r="HA22" s="1"/>
-      <c r="HB22" s="1"/>
-      <c r="HC22" s="1"/>
-      <c r="HD22" s="1"/>
-      <c r="HE22" s="1"/>
-      <c r="HF22" s="1"/>
-      <c r="HG22" s="1"/>
-      <c r="HH22" s="1"/>
-      <c r="HI22" s="1"/>
-      <c r="HJ22" s="1"/>
-      <c r="HK22" s="1"/>
-      <c r="HL22" s="1"/>
-      <c r="HM22" s="1"/>
-      <c r="HN22" s="1"/>
-      <c r="HO22" s="1"/>
-      <c r="HP22" s="1"/>
-      <c r="HQ22" s="1"/>
-      <c r="HR22" s="1"/>
-      <c r="HS22" s="1"/>
-      <c r="HT22" s="1"/>
-      <c r="HU22" s="1"/>
-      <c r="HV22" s="1"/>
-      <c r="HW22" s="1"/>
-      <c r="HX22" s="1"/>
-      <c r="HY22" s="1"/>
-      <c r="HZ22" s="1"/>
-      <c r="IA22" s="1"/>
-      <c r="IB22" s="1"/>
-      <c r="IC22" s="1"/>
-      <c r="ID22" s="1"/>
-      <c r="IE22" s="1"/>
-      <c r="IF22" s="1"/>
-      <c r="IG22" s="1"/>
-      <c r="IH22" s="1"/>
-      <c r="II22" s="1"/>
-      <c r="IJ22" s="1"/>
-      <c r="IK22" s="1"/>
-      <c r="IL22" s="1"/>
-      <c r="IM22" s="1"/>
-      <c r="IN22" s="1"/>
-      <c r="IO22" s="1"/>
-      <c r="IP22" s="1"/>
-      <c r="IQ22" s="1"/>
-      <c r="IR22" s="1"/>
-      <c r="IS22" s="1"/>
-      <c r="IT22" s="1"/>
-      <c r="IU22" s="1"/>
-      <c r="IV22" s="1"/>
-      <c r="IW22" s="1"/>
-      <c r="IX22" s="1"/>
-      <c r="IY22" s="1"/>
-      <c r="IZ22" s="1"/>
-      <c r="JA22" s="1"/>
-      <c r="JB22" s="1"/>
-      <c r="JC22" s="1"/>
-      <c r="JD22" s="1"/>
-      <c r="JE22" s="1"/>
-      <c r="JF22" s="1"/>
-      <c r="JG22" s="1"/>
-      <c r="JH22" s="1"/>
-      <c r="JI22" s="1"/>
-      <c r="JJ22" s="1"/>
-      <c r="JK22" s="1"/>
-      <c r="JL22" s="1"/>
-      <c r="JM22" s="1"/>
-      <c r="JN22" s="1"/>
-      <c r="JO22" s="1"/>
-      <c r="JP22" s="1"/>
-      <c r="JQ22" s="1"/>
-      <c r="JR22" s="1"/>
-      <c r="JS22" s="1"/>
-      <c r="JT22" s="1"/>
-      <c r="JU22" s="1"/>
-      <c r="JV22" s="1"/>
-      <c r="JW22" s="1"/>
-      <c r="JX22" s="1"/>
-      <c r="JY22" s="1"/>
-      <c r="JZ22" s="1"/>
-      <c r="KA22" s="1"/>
-      <c r="KB22" s="1"/>
-      <c r="KC22" s="1"/>
-      <c r="KD22" s="1"/>
-      <c r="KE22" s="1"/>
-      <c r="KF22" s="1"/>
-      <c r="KG22" s="1"/>
-      <c r="KH22" s="1"/>
-      <c r="KI22" s="1"/>
-      <c r="KJ22" s="1"/>
-      <c r="KK22" s="1"/>
-      <c r="KL22" s="1"/>
-      <c r="KM22" s="1"/>
-      <c r="KN22" s="1"/>
-      <c r="KO22" s="1"/>
-      <c r="KP22" s="1"/>
-      <c r="KQ22" s="1"/>
-      <c r="KR22" s="1"/>
-      <c r="KS22" s="1"/>
-      <c r="KT22" s="1"/>
-      <c r="KU22" s="1"/>
-      <c r="KV22" s="1"/>
-      <c r="KW22" s="1"/>
-      <c r="KX22" s="1"/>
-      <c r="KY22" s="1"/>
-      <c r="KZ22" s="1"/>
-      <c r="LA22" s="1"/>
-      <c r="LB22" s="1"/>
-      <c r="LC22" s="1"/>
-      <c r="LD22" s="1"/>
-      <c r="LE22" s="1"/>
-      <c r="LF22" s="1"/>
-      <c r="LG22" s="1"/>
-      <c r="LH22" s="1"/>
-      <c r="LI22" s="1"/>
-      <c r="LJ22" s="1"/>
-      <c r="LK22" s="1"/>
-      <c r="LL22" s="1"/>
-      <c r="LM22" s="1"/>
-      <c r="LN22" s="1"/>
-      <c r="LO22" s="1"/>
-      <c r="LP22" s="1"/>
-      <c r="LQ22" s="1"/>
-      <c r="LR22" s="1"/>
-      <c r="LS22" s="1"/>
-      <c r="LT22" s="1"/>
-      <c r="LU22" s="1"/>
-      <c r="LV22" s="1"/>
-      <c r="LW22" s="1"/>
-      <c r="LX22" s="1"/>
-      <c r="LY22" s="1"/>
-      <c r="LZ22" s="1"/>
-      <c r="MA22" s="1"/>
-      <c r="MB22" s="1"/>
-      <c r="MC22" s="1"/>
-      <c r="MD22" s="1"/>
+    <row r="22" spans="1:342" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A22" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B22" s="4">
+        <v>25803508.116999999</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1578068.5330000001</v>
+      </c>
+      <c r="D22" s="4">
+        <v>24225439.583999999</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1003550.348</v>
+      </c>
+      <c r="F22" s="4">
+        <v>656653.66299999994</v>
+      </c>
+      <c r="G22" s="4">
+        <v>183307.908</v>
+      </c>
+      <c r="H22" s="4">
+        <v>95183.989000000001</v>
+      </c>
+      <c r="I22" s="4">
+        <v>171577.79399999999</v>
+      </c>
+      <c r="J22" s="4">
+        <v>78671.680999999997</v>
+      </c>
+      <c r="K22" s="4">
+        <v>127912.291</v>
+      </c>
+      <c r="L22" s="4">
+        <v>291786.71999999997</v>
+      </c>
+      <c r="M22" s="4">
+        <v>150822.473</v>
+      </c>
+      <c r="N22" s="4">
+        <v>28407.940999999999</v>
+      </c>
+      <c r="O22" s="4">
+        <v>95829.475000000006</v>
+      </c>
+      <c r="P22" s="4">
+        <v>7174.53</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>7747.884</v>
+      </c>
+      <c r="R22" s="4">
+        <v>1804.4169999999999</v>
+      </c>
+      <c r="S22" s="4">
+        <v>28415.152999999998</v>
+      </c>
+      <c r="T22" s="4">
+        <v>85.944999999999993</v>
+      </c>
+      <c r="U22" s="4">
+        <v>14666.692999999999</v>
+      </c>
+      <c r="V22" s="4">
+        <v>13662.514999999999</v>
+      </c>
+      <c r="W22" s="4">
+        <v>23557.967000000001</v>
+      </c>
+      <c r="X22" s="4">
+        <v>23051.06</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>506.90699999999998</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>3136.8449999999998</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>2117.239</v>
+      </c>
+      <c r="AB22" s="4">
+        <v>95.322999999999993</v>
+      </c>
+      <c r="AC22" s="4">
+        <v>924.28300000000002</v>
+      </c>
+      <c r="AD22" s="4">
+        <v>1038363.205</v>
+      </c>
+      <c r="AE22" s="4">
+        <v>529642.76199999999</v>
+      </c>
+      <c r="AF22" s="4">
+        <v>389890.61499999999</v>
+      </c>
+      <c r="AG22" s="4">
+        <v>7573.6670000000004</v>
+      </c>
+      <c r="AH22" s="4">
+        <v>277184.18199999997</v>
+      </c>
+      <c r="AI22" s="4">
+        <v>105132.766</v>
+      </c>
+      <c r="AJ22" s="4">
+        <v>118829.82799999999</v>
+      </c>
+      <c r="AK22" s="4">
+        <v>438241.10100000002</v>
+      </c>
+      <c r="AL22" s="4">
+        <v>352306.79300000001</v>
+      </c>
+      <c r="AM22" s="4">
+        <v>85934.308000000005</v>
+      </c>
+      <c r="AN22" s="4">
+        <v>85725.645999999993</v>
+      </c>
+      <c r="AO22" s="4">
+        <v>208.66200000000001</v>
+      </c>
+      <c r="AP22" s="4">
+        <v>1815728.673</v>
+      </c>
+      <c r="AQ22" s="4">
+        <v>1257145.868</v>
+      </c>
+      <c r="AR22" s="4">
+        <v>895785.12199999997</v>
+      </c>
+      <c r="AS22" s="4">
+        <v>361360.74599999998</v>
+      </c>
+      <c r="AT22" s="4">
+        <v>266318.84700000001</v>
+      </c>
+      <c r="AU22" s="4">
+        <v>81143.285999999993</v>
+      </c>
+      <c r="AV22" s="4">
+        <v>49562.610999999997</v>
+      </c>
+      <c r="AW22" s="4">
+        <v>115659.568</v>
+      </c>
+      <c r="AX22" s="4">
+        <v>19953.382000000001</v>
+      </c>
+      <c r="AY22" s="4">
+        <v>292263.95799999998</v>
+      </c>
+      <c r="AZ22" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="BA22" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="BB22" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="BC22" s="4">
+        <v>292263.95799999998</v>
+      </c>
+      <c r="BD22" s="4">
+        <v>4664024.699</v>
+      </c>
+      <c r="BE22" s="4">
+        <v>983775.21900000004</v>
+      </c>
+      <c r="BF22" s="4">
+        <v>34477.406999999999</v>
+      </c>
+      <c r="BG22" s="4">
+        <v>83055.910999999993</v>
+      </c>
+      <c r="BH22" s="4">
+        <v>61689.574999999997</v>
+      </c>
+      <c r="BI22" s="4">
+        <v>34697.093000000001</v>
+      </c>
+      <c r="BJ22" s="4">
+        <v>81429.286999999997</v>
+      </c>
+      <c r="BK22" s="4">
+        <v>255874.94399999999</v>
+      </c>
+      <c r="BL22" s="4">
+        <v>4765.9870000000001</v>
+      </c>
+      <c r="BM22" s="4">
+        <v>299411.10399999999</v>
+      </c>
+      <c r="BN22" s="4">
+        <v>128373.91099999999</v>
+      </c>
+      <c r="BO22" s="4">
+        <v>301221.85100000002</v>
+      </c>
+      <c r="BP22" s="4">
+        <v>258457.10399999999</v>
+      </c>
+      <c r="BQ22" s="4">
+        <v>42764.747000000003</v>
+      </c>
+      <c r="BR22" s="4">
+        <v>33553.114000000001</v>
+      </c>
+      <c r="BS22" s="4">
+        <v>6448.3919999999998</v>
+      </c>
+      <c r="BT22" s="4">
+        <v>22057.264999999999</v>
+      </c>
+      <c r="BU22" s="4">
+        <v>5047.4570000000003</v>
+      </c>
+      <c r="BV22" s="4">
+        <v>19707.508999999998</v>
+      </c>
+      <c r="BW22" s="4">
+        <v>7542.0569999999998</v>
+      </c>
+      <c r="BX22" s="4">
+        <v>12165.451999999999</v>
+      </c>
+      <c r="BY22" s="4">
+        <v>74287.966</v>
+      </c>
+      <c r="BZ22" s="4">
+        <v>8915.5190000000002</v>
+      </c>
+      <c r="CA22" s="4">
+        <v>61605.203000000001</v>
+      </c>
+      <c r="CB22" s="4">
+        <v>3767.2440000000001</v>
+      </c>
+      <c r="CC22" s="4">
+        <v>24381.223999999998</v>
+      </c>
+      <c r="CD22" s="4">
+        <v>5891.8710000000001</v>
+      </c>
+      <c r="CE22" s="4">
+        <v>15869.575000000001</v>
+      </c>
+      <c r="CF22" s="4">
+        <v>2619.7779999999998</v>
+      </c>
+      <c r="CG22" s="4">
+        <v>41243.857000000004</v>
+      </c>
+      <c r="CH22" s="4">
+        <v>19101.847000000002</v>
+      </c>
+      <c r="CI22" s="4">
+        <v>1517.2840000000001</v>
+      </c>
+      <c r="CJ22" s="4">
+        <v>20624.725999999999</v>
+      </c>
+      <c r="CK22" s="4">
+        <v>86001.59</v>
+      </c>
+      <c r="CL22" s="4">
+        <v>27105.478999999999</v>
+      </c>
+      <c r="CM22" s="4">
+        <v>58896.110999999997</v>
+      </c>
+      <c r="CN22" s="4">
+        <v>25848.814999999999</v>
+      </c>
+      <c r="CO22" s="4">
+        <v>175095.64</v>
+      </c>
+      <c r="CP22" s="4">
+        <v>261505.61799999999</v>
+      </c>
+      <c r="CQ22" s="4">
+        <v>71514.046000000002</v>
+      </c>
+      <c r="CR22" s="4">
+        <v>32447.366999999998</v>
+      </c>
+      <c r="CS22" s="4">
+        <v>14848.822</v>
+      </c>
+      <c r="CT22" s="4">
+        <v>51365.061000000002</v>
+      </c>
+      <c r="CU22" s="4">
+        <v>18549.647000000001</v>
+      </c>
+      <c r="CV22" s="4">
+        <v>47740.610999999997</v>
+      </c>
+      <c r="CW22" s="4">
+        <v>25040.063999999998</v>
+      </c>
+      <c r="CX22" s="4">
+        <v>149733.171</v>
+      </c>
+      <c r="CY22" s="4">
+        <v>115232.575</v>
+      </c>
+      <c r="CZ22" s="4">
+        <v>34500.595999999998</v>
+      </c>
+      <c r="DA22" s="4">
+        <v>125751.56200000001</v>
+      </c>
+      <c r="DB22" s="4">
+        <v>26717.002</v>
+      </c>
+      <c r="DC22" s="4">
+        <v>40588.870000000003</v>
+      </c>
+      <c r="DD22" s="4">
+        <v>36631.550999999999</v>
+      </c>
+      <c r="DE22" s="4">
+        <v>11653.661</v>
+      </c>
+      <c r="DF22" s="4">
+        <v>10160.477999999999</v>
+      </c>
+      <c r="DG22" s="4">
+        <v>339457.99</v>
+      </c>
+      <c r="DH22" s="4">
+        <v>109317.923</v>
+      </c>
+      <c r="DI22" s="4">
+        <v>75222.13</v>
+      </c>
+      <c r="DJ22" s="4">
+        <v>18792.103999999999</v>
+      </c>
+      <c r="DK22" s="4">
+        <v>124657.561</v>
+      </c>
+      <c r="DL22" s="4">
+        <v>11468.272000000001</v>
+      </c>
+      <c r="DM22" s="4">
+        <v>185456.77499999999</v>
+      </c>
+      <c r="DN22" s="4">
+        <v>7726.4369999999999</v>
+      </c>
+      <c r="DO22" s="4">
+        <v>16896.530999999999</v>
+      </c>
+      <c r="DP22" s="4">
+        <v>44600.044999999998</v>
+      </c>
+      <c r="DQ22" s="4">
+        <v>12588.253000000001</v>
+      </c>
+      <c r="DR22" s="4">
+        <v>8460.5349999999999</v>
+      </c>
+      <c r="DS22" s="4">
+        <v>12840.646000000001</v>
+      </c>
+      <c r="DT22" s="4">
+        <v>14362.903</v>
+      </c>
+      <c r="DU22" s="4">
+        <v>28784.82</v>
+      </c>
+      <c r="DV22" s="4">
+        <v>39196.605000000003</v>
+      </c>
+      <c r="DW22" s="4">
+        <v>177553.973</v>
+      </c>
+      <c r="DX22" s="4">
+        <v>17685.991000000002</v>
+      </c>
+      <c r="DY22" s="4">
+        <v>11590.078</v>
+      </c>
+      <c r="DZ22" s="4">
+        <v>3008.9470000000001</v>
+      </c>
+      <c r="EA22" s="4">
+        <v>38877.815000000002</v>
+      </c>
+      <c r="EB22" s="4">
+        <v>3436.7710000000002</v>
+      </c>
+      <c r="EC22" s="4">
+        <v>61610.983999999997</v>
+      </c>
+      <c r="ED22" s="4">
+        <v>41343.387000000002</v>
+      </c>
+      <c r="EE22" s="4">
+        <v>383647.799</v>
+      </c>
+      <c r="EF22" s="4">
+        <v>100213.087</v>
+      </c>
+      <c r="EG22" s="4">
+        <v>59323.913</v>
+      </c>
+      <c r="EH22" s="4">
+        <v>81656.84</v>
+      </c>
+      <c r="EI22" s="4">
+        <v>117342.902</v>
+      </c>
+      <c r="EJ22" s="4">
+        <v>23122.978999999999</v>
+      </c>
+      <c r="EK22" s="4">
+        <v>1988.078</v>
+      </c>
+      <c r="EL22" s="4">
+        <v>171954.24</v>
+      </c>
+      <c r="EM22" s="4">
+        <v>7126.29</v>
+      </c>
+      <c r="EN22" s="4">
+        <v>28704.681</v>
+      </c>
+      <c r="EO22" s="4">
+        <v>68505.633000000002</v>
+      </c>
+      <c r="EP22" s="4">
+        <v>67617.635999999999</v>
+      </c>
+      <c r="EQ22" s="4">
+        <v>929868.696</v>
+      </c>
+      <c r="ER22" s="4">
+        <v>458570.04100000003</v>
+      </c>
+      <c r="ES22" s="4">
+        <v>18154.296999999999</v>
+      </c>
+      <c r="ET22" s="4">
+        <v>385879.62900000002</v>
+      </c>
+      <c r="EU22" s="4">
+        <v>21351.107</v>
+      </c>
+      <c r="EV22" s="4">
+        <v>17768.205000000002</v>
+      </c>
+      <c r="EW22" s="4">
+        <v>1041.576</v>
+      </c>
+      <c r="EX22" s="4">
+        <v>27103.841</v>
+      </c>
+      <c r="EY22" s="4">
+        <v>50699.32</v>
+      </c>
+      <c r="EZ22" s="4">
+        <v>35309.381000000001</v>
+      </c>
+      <c r="FA22" s="4">
+        <v>6734.06</v>
+      </c>
+      <c r="FB22" s="4">
+        <v>8655.8790000000008</v>
+      </c>
+      <c r="FC22" s="4">
+        <v>123278.77</v>
+      </c>
+      <c r="FD22" s="4">
+        <v>66232.317999999999</v>
+      </c>
+      <c r="FE22" s="4">
+        <v>57046.451999999997</v>
+      </c>
+      <c r="FF22" s="4">
+        <v>2494867.9350000001</v>
+      </c>
+      <c r="FG22" s="4">
+        <v>2553594.9070000001</v>
+      </c>
+      <c r="FH22" s="4">
+        <v>1512208.0149999999</v>
+      </c>
+      <c r="FI22" s="4">
+        <v>63886.023999999998</v>
+      </c>
+      <c r="FJ22" s="4">
+        <v>57335.523999999998</v>
+      </c>
+      <c r="FK22" s="4">
+        <v>6550.5</v>
+      </c>
+      <c r="FL22" s="4">
+        <v>40419.614999999998</v>
+      </c>
+      <c r="FM22" s="4">
+        <v>20440.001</v>
+      </c>
+      <c r="FN22" s="4">
+        <v>20103.082999999999</v>
+      </c>
+      <c r="FO22" s="4">
+        <v>336.91800000000001</v>
+      </c>
+      <c r="FP22" s="4">
+        <v>820207.31900000002</v>
+      </c>
+      <c r="FQ22" s="4">
+        <v>346096.52100000001</v>
+      </c>
+      <c r="FR22" s="4">
+        <v>87231.236000000004</v>
+      </c>
+      <c r="FS22" s="4">
+        <v>93893.892000000007</v>
+      </c>
+      <c r="FT22" s="4">
+        <v>160323.90700000001</v>
+      </c>
+      <c r="FU22" s="4">
+        <v>1060.489</v>
+      </c>
+      <c r="FV22" s="4">
+        <v>1696.5260000000001</v>
+      </c>
+      <c r="FW22" s="4">
+        <v>1890.471</v>
+      </c>
+      <c r="FX22" s="4">
+        <v>20697.087</v>
+      </c>
+      <c r="FY22" s="4">
+        <v>6540.9269999999997</v>
+      </c>
+      <c r="FZ22" s="4">
+        <v>14156.16</v>
+      </c>
+      <c r="GA22" s="4">
+        <v>906.57</v>
+      </c>
+      <c r="GB22" s="4">
+        <v>634.995</v>
+      </c>
+      <c r="GC22" s="4">
+        <v>267.20699999999999</v>
+      </c>
+      <c r="GD22" s="4">
+        <v>4.3680000000000003</v>
+      </c>
+      <c r="GE22" s="4">
+        <v>134614.60200000001</v>
+      </c>
+      <c r="GF22" s="4">
+        <v>38115.284</v>
+      </c>
+      <c r="GG22" s="4">
+        <v>671.95899999999995</v>
+      </c>
+      <c r="GH22" s="4">
+        <v>20981.054</v>
+      </c>
+      <c r="GI22" s="4">
+        <v>36624.438000000002</v>
+      </c>
+      <c r="GJ22" s="4">
+        <v>36673.125</v>
+      </c>
+      <c r="GK22" s="4">
+        <v>1548.742</v>
+      </c>
+      <c r="GL22" s="4">
+        <v>4107.6130000000003</v>
+      </c>
+      <c r="GM22" s="4">
+        <v>41579.46</v>
+      </c>
+      <c r="GN22" s="4">
+        <v>19253.203000000001</v>
+      </c>
+      <c r="GO22" s="4">
+        <v>393986.77899999998</v>
+      </c>
+      <c r="GP22" s="4">
+        <v>25114.867999999999</v>
+      </c>
+      <c r="GQ22" s="4">
+        <v>8725.348</v>
+      </c>
+      <c r="GR22" s="4">
+        <v>16389.52</v>
+      </c>
+      <c r="GS22" s="4">
+        <v>15855.275</v>
+      </c>
+      <c r="GT22" s="4">
+        <v>14133.532999999999</v>
+      </c>
+      <c r="GU22" s="4">
+        <v>1721.742</v>
+      </c>
+      <c r="GV22" s="4">
+        <v>36111.449999999997</v>
+      </c>
+      <c r="GW22" s="4">
+        <v>35892.703000000001</v>
+      </c>
+      <c r="GX22" s="4">
+        <v>218.74700000000001</v>
+      </c>
+      <c r="GY22" s="4">
+        <v>312813.59899999999</v>
+      </c>
+      <c r="GZ22" s="4">
+        <v>186340.193</v>
+      </c>
+      <c r="HA22" s="4">
+        <v>116791.625</v>
+      </c>
+      <c r="HB22" s="4">
+        <v>506.33499999999998</v>
+      </c>
+      <c r="HC22" s="4">
+        <v>9175.4459999999999</v>
+      </c>
+      <c r="HD22" s="4">
+        <v>2971.1</v>
+      </c>
+      <c r="HE22" s="4">
+        <v>1120.4870000000001</v>
+      </c>
+      <c r="HF22" s="4">
+        <v>972296.04599999997</v>
+      </c>
+      <c r="HG22" s="4">
+        <v>30135.437000000002</v>
+      </c>
+      <c r="HH22" s="4">
+        <v>800022.27500000002</v>
+      </c>
+      <c r="HI22" s="4">
+        <v>538559.88199999998</v>
+      </c>
+      <c r="HJ22" s="4">
+        <v>97708.528000000006</v>
+      </c>
+      <c r="HK22" s="4">
+        <v>72514.417000000001</v>
+      </c>
+      <c r="HL22" s="4">
+        <v>86857.578999999998</v>
+      </c>
+      <c r="HM22" s="4">
+        <v>4381.8689999999997</v>
+      </c>
+      <c r="HN22" s="4">
+        <v>22062.451000000001</v>
+      </c>
+      <c r="HO22" s="4">
+        <v>16679.016</v>
+      </c>
+      <c r="HP22" s="4">
+        <v>1377.546</v>
+      </c>
+      <c r="HQ22" s="4">
+        <v>4005.8890000000001</v>
+      </c>
+      <c r="HR22" s="4">
+        <v>120075.883</v>
+      </c>
+      <c r="HS22" s="4">
+        <v>35879.046000000002</v>
+      </c>
+      <c r="HT22" s="4">
+        <v>84196.837</v>
+      </c>
+      <c r="HU22" s="4">
+        <v>2513165.0299999998</v>
+      </c>
+      <c r="HV22" s="4">
+        <v>2443070.7439999999</v>
+      </c>
+      <c r="HW22" s="4">
+        <v>2385842.0240000002</v>
+      </c>
+      <c r="HX22" s="4">
+        <v>47560.714</v>
+      </c>
+      <c r="HY22" s="4">
+        <v>9668.0059999999994</v>
+      </c>
+      <c r="HZ22" s="4">
+        <v>26353.098000000002</v>
+      </c>
+      <c r="IA22" s="4">
+        <v>6374.6580000000004</v>
+      </c>
+      <c r="IB22" s="4">
+        <v>5277.165</v>
+      </c>
+      <c r="IC22" s="4">
+        <v>510.24099999999999</v>
+      </c>
+      <c r="ID22" s="4">
+        <v>14191.034</v>
+      </c>
+      <c r="IE22" s="4">
+        <v>43741.188000000002</v>
+      </c>
+      <c r="IF22" s="4">
+        <v>476304.571</v>
+      </c>
+      <c r="IG22" s="4">
+        <v>476304.571</v>
+      </c>
+      <c r="IH22" s="4">
+        <v>70954.135999999999</v>
+      </c>
+      <c r="II22" s="4">
+        <v>236149.003</v>
+      </c>
+      <c r="IJ22" s="4">
+        <v>27517.048999999999</v>
+      </c>
+      <c r="IK22" s="4">
+        <v>2742.5140000000001</v>
+      </c>
+      <c r="IL22" s="4">
+        <v>18576.382000000001</v>
+      </c>
+      <c r="IM22" s="4">
+        <v>45375.017</v>
+      </c>
+      <c r="IN22" s="4">
+        <v>29842.274000000001</v>
+      </c>
+      <c r="IO22" s="4">
+        <v>26042.769</v>
+      </c>
+      <c r="IP22" s="4">
+        <v>19105.427</v>
+      </c>
+      <c r="IQ22" s="4">
+        <v>180698.177</v>
+      </c>
+      <c r="IR22" s="4">
+        <v>616939.19999999995</v>
+      </c>
+      <c r="IS22" s="4">
+        <v>603974.93000000005</v>
+      </c>
+      <c r="IT22" s="4">
+        <v>37871.451999999997</v>
+      </c>
+      <c r="IU22" s="4">
+        <v>2876.1640000000002</v>
+      </c>
+      <c r="IV22" s="4">
+        <v>472416.16100000002</v>
+      </c>
+      <c r="IW22" s="4">
+        <v>26016.47</v>
+      </c>
+      <c r="IX22" s="4">
+        <v>6975.9170000000004</v>
+      </c>
+      <c r="IY22" s="4">
+        <v>44626.889000000003</v>
+      </c>
+      <c r="IZ22" s="4">
+        <v>7152.3459999999995</v>
+      </c>
+      <c r="JA22" s="4">
+        <v>6039.5309999999999</v>
+      </c>
+      <c r="JB22" s="4">
+        <v>12964.27</v>
+      </c>
+      <c r="JC22" s="4">
+        <v>939650.97499999998</v>
+      </c>
+      <c r="JD22" s="4">
+        <v>939650.97499999998</v>
+      </c>
+      <c r="JE22" s="4">
+        <v>655725.78500000003</v>
+      </c>
+      <c r="JF22" s="4">
+        <v>371.488</v>
+      </c>
+      <c r="JG22" s="4">
+        <v>277615.46999999997</v>
+      </c>
+      <c r="JH22" s="4">
+        <v>1122.45</v>
+      </c>
+      <c r="JI22" s="4">
+        <v>510.49099999999999</v>
+      </c>
+      <c r="JJ22" s="4">
+        <v>4020.4430000000002</v>
+      </c>
+      <c r="JK22" s="4">
+        <v>284.84800000000001</v>
+      </c>
+      <c r="JL22" s="4">
+        <v>667432.49899999995</v>
+      </c>
+      <c r="JM22" s="4">
+        <v>299547.27100000001</v>
+      </c>
+      <c r="JN22" s="4">
+        <v>231745.302</v>
+      </c>
+      <c r="JO22" s="4">
+        <v>45819.171999999999</v>
+      </c>
+      <c r="JP22" s="4">
+        <v>4291.7969999999996</v>
+      </c>
+      <c r="JQ22" s="4">
+        <v>2122.8229999999999</v>
+      </c>
+      <c r="JR22" s="4">
+        <v>12751.199000000001</v>
+      </c>
+      <c r="JS22" s="4">
+        <v>1717.479</v>
+      </c>
+      <c r="JT22" s="4">
+        <v>1099.499</v>
+      </c>
+      <c r="JU22" s="4">
+        <v>352994.14</v>
+      </c>
+      <c r="JV22" s="4">
+        <v>259034.85699999999</v>
+      </c>
+      <c r="JW22" s="4">
+        <v>205.32300000000001</v>
+      </c>
+      <c r="JX22" s="4">
+        <v>93753.96</v>
+      </c>
+      <c r="JY22" s="4">
+        <v>2289.7570000000001</v>
+      </c>
+      <c r="JZ22" s="4">
+        <v>91.209000000000003</v>
+      </c>
+      <c r="KA22" s="4">
+        <v>987.71100000000001</v>
+      </c>
+      <c r="KB22" s="4">
+        <v>683.86300000000006</v>
+      </c>
+      <c r="KC22" s="4">
+        <v>526.97400000000005</v>
+      </c>
+      <c r="KD22" s="4">
+        <v>12601.331</v>
+      </c>
+      <c r="KE22" s="4">
+        <v>1821.204</v>
+      </c>
+      <c r="KF22" s="4">
+        <v>364.06599999999997</v>
+      </c>
+      <c r="KG22" s="4">
+        <v>97.25</v>
+      </c>
+      <c r="KH22" s="4">
+        <v>10318.811</v>
+      </c>
+      <c r="KI22" s="4">
+        <v>76100.171000000002</v>
+      </c>
+      <c r="KJ22" s="4">
+        <v>36954.784</v>
+      </c>
+      <c r="KK22" s="4">
+        <v>2941.7730000000001</v>
+      </c>
+      <c r="KL22" s="4">
+        <v>5462.5280000000002</v>
+      </c>
+      <c r="KM22" s="4">
+        <v>4029.4319999999998</v>
+      </c>
+      <c r="KN22" s="4">
+        <v>116.253</v>
+      </c>
+      <c r="KO22" s="4">
+        <v>24404.797999999999</v>
+      </c>
+      <c r="KP22" s="4">
+        <v>6637.7060000000001</v>
+      </c>
+      <c r="KQ22" s="4">
+        <v>32507.681</v>
+      </c>
+      <c r="KR22" s="4">
+        <v>3271.8519999999999</v>
+      </c>
+      <c r="KS22" s="4">
+        <v>19780.727999999999</v>
+      </c>
+      <c r="KT22" s="4">
+        <v>9455.1010000000006</v>
+      </c>
+      <c r="KU22" s="4">
+        <v>449282.99</v>
+      </c>
+      <c r="KV22" s="4">
+        <v>216914.01300000001</v>
+      </c>
+      <c r="KW22" s="4">
+        <v>215344.965</v>
+      </c>
+      <c r="KX22" s="4">
+        <v>139.07400000000001</v>
+      </c>
+      <c r="KY22" s="4">
+        <v>1429.9739999999999</v>
+      </c>
+      <c r="KZ22" s="4">
+        <v>232368.97700000001</v>
+      </c>
+      <c r="LA22" s="4">
+        <v>37511.525000000001</v>
+      </c>
+      <c r="LB22" s="4">
+        <v>9033.8670000000002</v>
+      </c>
+      <c r="LC22" s="4">
+        <v>185823.58499999999</v>
+      </c>
+      <c r="LD22" s="4">
+        <v>468753.837</v>
+      </c>
+      <c r="LE22" s="4">
+        <v>98072.972999999998</v>
+      </c>
+      <c r="LF22" s="4">
+        <v>62085.296000000002</v>
+      </c>
+      <c r="LG22" s="4">
+        <v>6429.1049999999996</v>
+      </c>
+      <c r="LH22" s="4">
+        <v>14619.117</v>
+      </c>
+      <c r="LI22" s="4">
+        <v>14939.455</v>
+      </c>
+      <c r="LJ22" s="4">
+        <v>209322.253</v>
+      </c>
+      <c r="LK22" s="4">
+        <v>25012.85</v>
+      </c>
+      <c r="LL22" s="4">
+        <v>10630.602000000001</v>
+      </c>
+      <c r="LM22" s="4">
+        <v>5387.6880000000001</v>
+      </c>
+      <c r="LN22" s="4">
+        <v>33926.964</v>
+      </c>
+      <c r="LO22" s="4">
+        <v>134364.149</v>
+      </c>
+      <c r="LP22" s="4">
+        <v>50484.989000000001</v>
+      </c>
+      <c r="LQ22" s="4">
+        <v>10442.955</v>
+      </c>
+      <c r="LR22" s="4">
+        <v>40042.034</v>
+      </c>
+      <c r="LS22" s="4">
+        <v>110873.622</v>
+      </c>
+      <c r="LT22" s="4">
+        <v>950250.42599999998</v>
+      </c>
+      <c r="LU22" s="4">
+        <v>950250.42599999998</v>
+      </c>
+      <c r="LV22" s="4">
+        <v>86066.036999999997</v>
+      </c>
+      <c r="LW22" s="4">
+        <v>174568.58799999999</v>
+      </c>
+      <c r="LX22" s="4">
+        <v>65008.086000000003</v>
+      </c>
+      <c r="LY22" s="4">
+        <v>264750.03700000001</v>
+      </c>
+      <c r="LZ22" s="4">
+        <v>8878.6110000000008</v>
+      </c>
+      <c r="MA22" s="4">
+        <v>269093.179</v>
+      </c>
+      <c r="MB22" s="4">
+        <v>2572.864</v>
+      </c>
+      <c r="MC22" s="4">
+        <v>79313.024000000005</v>
+      </c>
+      <c r="MD22" s="4" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="23" spans="1:342" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -23901,7 +24583,7 @@
     </row>
     <row r="24" spans="1:342" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -24247,7 +24929,7 @@
     </row>
     <row r="25" spans="1:342" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -24591,27 +25273,373 @@
       <c r="MC25" s="1"/>
       <c r="MD25" s="1"/>
     </row>
-    <row r="26" spans="1:342" x14ac:dyDescent="0.45">
-      <c r="A26" s="4"/>
+    <row r="26" spans="1:342" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="1"/>
+      <c r="AU26" s="1"/>
+      <c r="AV26" s="1"/>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="1"/>
+      <c r="AY26" s="1"/>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1"/>
+      <c r="BB26" s="1"/>
+      <c r="BC26" s="1"/>
+      <c r="BD26" s="1"/>
+      <c r="BE26" s="1"/>
+      <c r="BF26" s="1"/>
+      <c r="BG26" s="1"/>
+      <c r="BH26" s="1"/>
+      <c r="BI26" s="1"/>
+      <c r="BJ26" s="1"/>
+      <c r="BK26" s="1"/>
+      <c r="BL26" s="1"/>
+      <c r="BM26" s="1"/>
+      <c r="BN26" s="1"/>
+      <c r="BO26" s="1"/>
+      <c r="BP26" s="1"/>
+      <c r="BQ26" s="1"/>
+      <c r="BR26" s="1"/>
+      <c r="BS26" s="1"/>
+      <c r="BT26" s="1"/>
+      <c r="BU26" s="1"/>
+      <c r="BV26" s="1"/>
+      <c r="BW26" s="1"/>
+      <c r="BX26" s="1"/>
+      <c r="BY26" s="1"/>
+      <c r="BZ26" s="1"/>
+      <c r="CA26" s="1"/>
+      <c r="CB26" s="1"/>
+      <c r="CC26" s="1"/>
+      <c r="CD26" s="1"/>
+      <c r="CE26" s="1"/>
+      <c r="CF26" s="1"/>
+      <c r="CG26" s="1"/>
+      <c r="CH26" s="1"/>
+      <c r="CI26" s="1"/>
+      <c r="CJ26" s="1"/>
+      <c r="CK26" s="1"/>
+      <c r="CL26" s="1"/>
+      <c r="CM26" s="1"/>
+      <c r="CN26" s="1"/>
+      <c r="CO26" s="1"/>
+      <c r="CP26" s="1"/>
+      <c r="CQ26" s="1"/>
+      <c r="CR26" s="1"/>
+      <c r="CS26" s="1"/>
+      <c r="CT26" s="1"/>
+      <c r="CU26" s="1"/>
+      <c r="CV26" s="1"/>
+      <c r="CW26" s="1"/>
+      <c r="CX26" s="1"/>
+      <c r="CY26" s="1"/>
+      <c r="CZ26" s="1"/>
+      <c r="DA26" s="1"/>
+      <c r="DB26" s="1"/>
+      <c r="DC26" s="1"/>
+      <c r="DD26" s="1"/>
+      <c r="DE26" s="1"/>
+      <c r="DF26" s="1"/>
+      <c r="DG26" s="1"/>
+      <c r="DH26" s="1"/>
+      <c r="DI26" s="1"/>
+      <c r="DJ26" s="1"/>
+      <c r="DK26" s="1"/>
+      <c r="DL26" s="1"/>
+      <c r="DM26" s="1"/>
+      <c r="DN26" s="1"/>
+      <c r="DO26" s="1"/>
+      <c r="DP26" s="1"/>
+      <c r="DQ26" s="1"/>
+      <c r="DR26" s="1"/>
+      <c r="DS26" s="1"/>
+      <c r="DT26" s="1"/>
+      <c r="DU26" s="1"/>
+      <c r="DV26" s="1"/>
+      <c r="DW26" s="1"/>
+      <c r="DX26" s="1"/>
+      <c r="DY26" s="1"/>
+      <c r="DZ26" s="1"/>
+      <c r="EA26" s="1"/>
+      <c r="EB26" s="1"/>
+      <c r="EC26" s="1"/>
+      <c r="ED26" s="1"/>
+      <c r="EE26" s="1"/>
+      <c r="EF26" s="1"/>
+      <c r="EG26" s="1"/>
+      <c r="EH26" s="1"/>
+      <c r="EI26" s="1"/>
+      <c r="EJ26" s="1"/>
+      <c r="EK26" s="1"/>
+      <c r="EL26" s="1"/>
+      <c r="EM26" s="1"/>
+      <c r="EN26" s="1"/>
+      <c r="EO26" s="1"/>
+      <c r="EP26" s="1"/>
+      <c r="EQ26" s="1"/>
+      <c r="ER26" s="1"/>
+      <c r="ES26" s="1"/>
+      <c r="ET26" s="1"/>
+      <c r="EU26" s="1"/>
+      <c r="EV26" s="1"/>
+      <c r="EW26" s="1"/>
+      <c r="EX26" s="1"/>
+      <c r="EY26" s="1"/>
+      <c r="EZ26" s="1"/>
+      <c r="FA26" s="1"/>
+      <c r="FB26" s="1"/>
+      <c r="FC26" s="1"/>
+      <c r="FD26" s="1"/>
+      <c r="FE26" s="1"/>
+      <c r="FF26" s="1"/>
+      <c r="FG26" s="1"/>
+      <c r="FH26" s="1"/>
+      <c r="FI26" s="1"/>
+      <c r="FJ26" s="1"/>
+      <c r="FK26" s="1"/>
+      <c r="FL26" s="1"/>
+      <c r="FM26" s="1"/>
+      <c r="FN26" s="1"/>
+      <c r="FO26" s="1"/>
+      <c r="FP26" s="1"/>
+      <c r="FQ26" s="1"/>
+      <c r="FR26" s="1"/>
+      <c r="FS26" s="1"/>
+      <c r="FT26" s="1"/>
+      <c r="FU26" s="1"/>
+      <c r="FV26" s="1"/>
+      <c r="FW26" s="1"/>
+      <c r="FX26" s="1"/>
+      <c r="FY26" s="1"/>
+      <c r="FZ26" s="1"/>
+      <c r="GA26" s="1"/>
+      <c r="GB26" s="1"/>
+      <c r="GC26" s="1"/>
+      <c r="GD26" s="1"/>
+      <c r="GE26" s="1"/>
+      <c r="GF26" s="1"/>
+      <c r="GG26" s="1"/>
+      <c r="GH26" s="1"/>
+      <c r="GI26" s="1"/>
+      <c r="GJ26" s="1"/>
+      <c r="GK26" s="1"/>
+      <c r="GL26" s="1"/>
+      <c r="GM26" s="1"/>
+      <c r="GN26" s="1"/>
+      <c r="GO26" s="1"/>
+      <c r="GP26" s="1"/>
+      <c r="GQ26" s="1"/>
+      <c r="GR26" s="1"/>
+      <c r="GS26" s="1"/>
+      <c r="GT26" s="1"/>
+      <c r="GU26" s="1"/>
+      <c r="GV26" s="1"/>
+      <c r="GW26" s="1"/>
+      <c r="GX26" s="1"/>
+      <c r="GY26" s="1"/>
+      <c r="GZ26" s="1"/>
+      <c r="HA26" s="1"/>
+      <c r="HB26" s="1"/>
+      <c r="HC26" s="1"/>
+      <c r="HD26" s="1"/>
+      <c r="HE26" s="1"/>
+      <c r="HF26" s="1"/>
+      <c r="HG26" s="1"/>
+      <c r="HH26" s="1"/>
+      <c r="HI26" s="1"/>
+      <c r="HJ26" s="1"/>
+      <c r="HK26" s="1"/>
+      <c r="HL26" s="1"/>
+      <c r="HM26" s="1"/>
+      <c r="HN26" s="1"/>
+      <c r="HO26" s="1"/>
+      <c r="HP26" s="1"/>
+      <c r="HQ26" s="1"/>
+      <c r="HR26" s="1"/>
+      <c r="HS26" s="1"/>
+      <c r="HT26" s="1"/>
+      <c r="HU26" s="1"/>
+      <c r="HV26" s="1"/>
+      <c r="HW26" s="1"/>
+      <c r="HX26" s="1"/>
+      <c r="HY26" s="1"/>
+      <c r="HZ26" s="1"/>
+      <c r="IA26" s="1"/>
+      <c r="IB26" s="1"/>
+      <c r="IC26" s="1"/>
+      <c r="ID26" s="1"/>
+      <c r="IE26" s="1"/>
+      <c r="IF26" s="1"/>
+      <c r="IG26" s="1"/>
+      <c r="IH26" s="1"/>
+      <c r="II26" s="1"/>
+      <c r="IJ26" s="1"/>
+      <c r="IK26" s="1"/>
+      <c r="IL26" s="1"/>
+      <c r="IM26" s="1"/>
+      <c r="IN26" s="1"/>
+      <c r="IO26" s="1"/>
+      <c r="IP26" s="1"/>
+      <c r="IQ26" s="1"/>
+      <c r="IR26" s="1"/>
+      <c r="IS26" s="1"/>
+      <c r="IT26" s="1"/>
+      <c r="IU26" s="1"/>
+      <c r="IV26" s="1"/>
+      <c r="IW26" s="1"/>
+      <c r="IX26" s="1"/>
+      <c r="IY26" s="1"/>
+      <c r="IZ26" s="1"/>
+      <c r="JA26" s="1"/>
+      <c r="JB26" s="1"/>
+      <c r="JC26" s="1"/>
+      <c r="JD26" s="1"/>
+      <c r="JE26" s="1"/>
+      <c r="JF26" s="1"/>
+      <c r="JG26" s="1"/>
+      <c r="JH26" s="1"/>
+      <c r="JI26" s="1"/>
+      <c r="JJ26" s="1"/>
+      <c r="JK26" s="1"/>
+      <c r="JL26" s="1"/>
+      <c r="JM26" s="1"/>
+      <c r="JN26" s="1"/>
+      <c r="JO26" s="1"/>
+      <c r="JP26" s="1"/>
+      <c r="JQ26" s="1"/>
+      <c r="JR26" s="1"/>
+      <c r="JS26" s="1"/>
+      <c r="JT26" s="1"/>
+      <c r="JU26" s="1"/>
+      <c r="JV26" s="1"/>
+      <c r="JW26" s="1"/>
+      <c r="JX26" s="1"/>
+      <c r="JY26" s="1"/>
+      <c r="JZ26" s="1"/>
+      <c r="KA26" s="1"/>
+      <c r="KB26" s="1"/>
+      <c r="KC26" s="1"/>
+      <c r="KD26" s="1"/>
+      <c r="KE26" s="1"/>
+      <c r="KF26" s="1"/>
+      <c r="KG26" s="1"/>
+      <c r="KH26" s="1"/>
+      <c r="KI26" s="1"/>
+      <c r="KJ26" s="1"/>
+      <c r="KK26" s="1"/>
+      <c r="KL26" s="1"/>
+      <c r="KM26" s="1"/>
+      <c r="KN26" s="1"/>
+      <c r="KO26" s="1"/>
+      <c r="KP26" s="1"/>
+      <c r="KQ26" s="1"/>
+      <c r="KR26" s="1"/>
+      <c r="KS26" s="1"/>
+      <c r="KT26" s="1"/>
+      <c r="KU26" s="1"/>
+      <c r="KV26" s="1"/>
+      <c r="KW26" s="1"/>
+      <c r="KX26" s="1"/>
+      <c r="KY26" s="1"/>
+      <c r="KZ26" s="1"/>
+      <c r="LA26" s="1"/>
+      <c r="LB26" s="1"/>
+      <c r="LC26" s="1"/>
+      <c r="LD26" s="1"/>
+      <c r="LE26" s="1"/>
+      <c r="LF26" s="1"/>
+      <c r="LG26" s="1"/>
+      <c r="LH26" s="1"/>
+      <c r="LI26" s="1"/>
+      <c r="LJ26" s="1"/>
+      <c r="LK26" s="1"/>
+      <c r="LL26" s="1"/>
+      <c r="LM26" s="1"/>
+      <c r="LN26" s="1"/>
+      <c r="LO26" s="1"/>
+      <c r="LP26" s="1"/>
+      <c r="LQ26" s="1"/>
+      <c r="LR26" s="1"/>
+      <c r="LS26" s="1"/>
+      <c r="LT26" s="1"/>
+      <c r="LU26" s="1"/>
+      <c r="LV26" s="1"/>
+      <c r="LW26" s="1"/>
+      <c r="LX26" s="1"/>
+      <c r="LY26" s="1"/>
+      <c r="LZ26" s="1"/>
+      <c r="MA26" s="1"/>
+      <c r="MB26" s="1"/>
+      <c r="MC26" s="1"/>
+      <c r="MD26" s="1"/>
     </row>
-    <row r="27" spans="1:342" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:342" x14ac:dyDescent="0.45">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:342" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B28" s="6"/>
     </row>
-    <row r="28" spans="1:342" x14ac:dyDescent="0.45">
-      <c r="A28" s="4"/>
+    <row r="29" spans="1:342" x14ac:dyDescent="0.45">
+      <c r="A29" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A1:MD1"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A22:MD22"/>
     <mergeCell ref="A23:MD23"/>
     <mergeCell ref="A24:MD24"/>
     <mergeCell ref="A25:MD25"/>
+    <mergeCell ref="A26:MD26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
